--- a/nmadb/481378.xlsx
+++ b/nmadb/481378.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14370" windowHeight="11985"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$B$1:$F$195</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>r</t>
@@ -380,12 +377,15 @@
       <t xml:space="preserve">vaginal delivery not achieved within 24-hours </t>
     </r>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -865,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -881,7 +881,7 @@
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -892,23 +892,23 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6">
         <v>1990</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>1990</v>
       </c>
@@ -958,7 +958,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>1986</v>
       </c>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>1986</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="6">
         <v>1994</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>1994</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>1980</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="6">
         <v>1980</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>1995</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="6">
         <v>1995</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="6">
         <v>2000</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="6">
         <v>2000</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="6">
         <v>1988</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>1988</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>1991</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>1991</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <v>1998</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <v>1998</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
         <v>1991</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
         <v>1991</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
         <v>1999</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
         <v>1999</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="6">
         <v>1999</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="6">
         <v>1999</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="6">
         <v>1996</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="6">
         <v>1996</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="6">
         <v>2006</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="6">
         <v>2006</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="6">
         <v>1983</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="6">
         <v>1983</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="6">
         <v>1985</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="6">
         <v>1985</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="6">
         <v>1985</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="6">
         <v>1996</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="6">
         <v>1996</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="6">
         <v>2007</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="6">
         <v>2007</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="6">
         <v>2005</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="6">
         <v>2005</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="6">
         <v>1998</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="6">
         <v>1998</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="6">
         <v>2000</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="6">
         <v>2000</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="6">
         <v>2005</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="6">
         <v>2005</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
         <v>2003</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="6">
         <v>2003</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="6">
         <v>2006</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="6">
         <v>2006</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="6">
         <v>2001</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="6">
         <v>2001</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="6">
         <v>2001</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="6">
         <v>2001</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="6">
         <v>2001</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="6">
         <v>2001</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="6">
         <v>2001</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="6">
         <v>2001</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="6">
         <v>2005</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
         <v>2005</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="6">
         <v>2002</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="6">
         <v>2002</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="6">
         <v>2002</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="6">
         <v>2005</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="6">
         <v>2005</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="6">
         <v>2010</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="6">
         <v>2010</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="6">
         <v>2003</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="6">
         <v>2003</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="6">
         <v>2003</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="6">
         <v>2003</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="6">
         <v>2003</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="6">
         <v>2007</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="6">
         <v>2007</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="6">
         <v>2007</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="6">
         <v>2007</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="6">
         <v>2007</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="6">
         <v>2009</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="6">
         <v>2009</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="6">
         <v>2001</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="6">
         <v>2001</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="6">
         <v>2002</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="6">
         <v>2002</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="6">
         <v>2003</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="6">
         <v>2003</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="6">
         <v>2004</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="6">
         <v>2004</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="6">
         <v>2012</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="6">
         <v>2012</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="6">
         <v>1999</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
         <v>1999</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
         <v>2000</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <v>2000</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="6">
         <v>2008</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="6">
         <v>2008</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="6">
         <v>2013</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="6">
         <v>2013</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="6">
         <v>2014</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="6">
         <v>2014</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="6">
         <v>2013</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="6">
         <v>2013</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="6">
         <v>1992</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="6">
         <v>1992</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="6">
         <v>2008</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="6">
         <v>2008</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="6">
         <v>1995</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="6">
         <v>1995</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="6">
         <v>2002</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="6">
         <v>2002</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="6">
         <v>2000</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="6">
         <v>2000</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="6">
         <v>1995</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="6">
         <v>1995</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="6">
         <v>1999</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="6">
         <v>1999</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="6">
         <v>2007</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="6">
         <v>2007</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="6">
         <v>1997</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="6">
         <v>1997</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="6">
         <v>2003</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="6">
         <v>2003</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" s="6">
         <v>2002</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="6">
         <v>2002</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" s="6">
         <v>2001</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" s="6">
         <v>2001</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="6">
         <v>2001</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" s="6">
         <v>1999</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" s="6">
         <v>1999</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" s="6">
         <v>2008</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="6">
         <v>2008</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" s="6">
         <v>2007</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" s="6">
         <v>2007</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" s="6">
         <v>2001</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="6">
         <v>2001</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" s="6">
         <v>2004</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" s="6">
         <v>2004</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="6">
         <v>2003</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" s="6">
         <v>2003</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" s="6">
         <v>1999</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="6">
         <v>1999</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" s="6">
         <v>2004</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" s="6">
         <v>2004</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" s="6">
         <v>2001</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" s="6">
         <v>2001</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" s="6">
         <v>2001</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" s="6">
         <v>2001</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" s="6">
         <v>1998</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" s="6">
         <v>1998</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" s="6">
         <v>2007</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" s="6">
         <v>2007</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" s="6">
         <v>1995</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" s="6">
         <v>1995</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" s="6">
         <v>2012</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" s="6">
         <v>2012</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" s="6">
         <v>2012</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" s="6">
         <v>2012</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" s="6">
         <v>2011</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" s="6">
         <v>2011</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" s="6">
         <v>2009</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" s="6">
         <v>2009</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" s="6">
         <v>2011</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" s="6">
         <v>2011</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" s="6">
         <v>2010</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" s="6">
         <v>2010</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" s="6">
         <v>2000</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" s="6">
         <v>2000</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" s="6">
         <v>2010</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" s="6">
         <v>2010</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" s="6">
         <v>2009</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" s="6">
         <v>2009</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" s="6">
         <v>2011</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" s="6">
         <v>2011</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" s="6">
         <v>2011</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" s="6">
         <v>2004</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" s="6">
         <v>2004</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" s="6">
         <v>1997</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" s="6">
         <v>1997</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" s="6">
         <v>2008</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="6">
         <v>2008</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" s="6">
         <v>2013</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" s="6">
         <v>2013</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" s="6">
         <v>2004</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" s="6">
         <v>2004</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" s="6">
         <v>2001</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" s="6">
         <v>2001</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" s="6">
         <v>2006</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" s="6">
         <v>2006</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" s="6">
         <v>1989</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" s="6">
         <v>1989</v>
       </c>
